--- a/8/1/2/4/Activos - Flujos 2003 a 2021 - Trimestral.xlsx
+++ b/8/1/2/4/Activos - Flujos 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Serie</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -680,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD74"/>
+  <dimension ref="A1:AD75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7419,7 +7422,7 @@
         <v>-77</v>
       </c>
       <c r="F74">
-        <v>-1809</v>
+        <v>-51</v>
       </c>
       <c r="G74">
         <v>1429</v>
@@ -7449,49 +7452,141 @@
         <v>-1585</v>
       </c>
       <c r="P74">
-        <v>705</v>
+        <v>484</v>
       </c>
       <c r="Q74">
         <v>0</v>
       </c>
       <c r="R74">
-        <v>1492</v>
+        <v>1243</v>
       </c>
       <c r="S74">
         <v>-754</v>
       </c>
       <c r="T74">
-        <v>-33</v>
+        <v>-5</v>
       </c>
       <c r="U74">
-        <v>195</v>
+        <v>2174</v>
       </c>
       <c r="V74">
-        <v>71</v>
+        <v>666</v>
       </c>
       <c r="W74">
-        <v>140</v>
+        <v>1736</v>
       </c>
       <c r="X74">
         <v>-15</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>-214</v>
       </c>
       <c r="Z74">
-        <v>5255</v>
+        <v>10441</v>
       </c>
       <c r="AA74">
-        <v>1697</v>
+        <v>7732</v>
       </c>
       <c r="AB74">
-        <v>1847</v>
+        <v>1326</v>
       </c>
       <c r="AC74">
         <v>-249</v>
       </c>
       <c r="AD74">
-        <v>1960</v>
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
+      <c r="A75" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75">
+        <v>-3990</v>
+      </c>
+      <c r="C75">
+        <v>-4109</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>118</v>
+      </c>
+      <c r="F75">
+        <v>-169</v>
+      </c>
+      <c r="G75">
+        <v>4523</v>
+      </c>
+      <c r="H75">
+        <v>4446</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>77</v>
+      </c>
+      <c r="K75">
+        <v>701</v>
+      </c>
+      <c r="L75">
+        <v>5</v>
+      </c>
+      <c r="M75">
+        <v>696</v>
+      </c>
+      <c r="N75">
+        <v>-1909</v>
+      </c>
+      <c r="O75">
+        <v>1909</v>
+      </c>
+      <c r="P75">
+        <v>-7115</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>-6609</v>
+      </c>
+      <c r="S75">
+        <v>-614</v>
+      </c>
+      <c r="T75">
+        <v>108</v>
+      </c>
+      <c r="U75">
+        <v>1722</v>
+      </c>
+      <c r="V75">
+        <v>241</v>
+      </c>
+      <c r="W75">
+        <v>1495</v>
+      </c>
+      <c r="X75">
+        <v>-33</v>
+      </c>
+      <c r="Y75">
+        <v>18</v>
+      </c>
+      <c r="Z75">
+        <v>6651</v>
+      </c>
+      <c r="AA75">
+        <v>1203</v>
+      </c>
+      <c r="AB75">
+        <v>3170</v>
+      </c>
+      <c r="AC75">
+        <v>-176</v>
+      </c>
+      <c r="AD75">
+        <v>2453</v>
       </c>
     </row>
   </sheetData>

--- a/8/1/2/4/Activos - Flujos 2003 a 2021 - Trimestral.xlsx
+++ b/8/1/2/4/Activos - Flujos 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Serie</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD75"/>
+  <dimension ref="A1:AD76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7589,6 +7592,98 @@
         <v>2453</v>
       </c>
     </row>
+    <row r="76" spans="1:30">
+      <c r="A76" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76">
+        <v>-2592</v>
+      </c>
+      <c r="C76">
+        <v>-2267</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>-326</v>
+      </c>
+      <c r="F76">
+        <v>10982</v>
+      </c>
+      <c r="G76">
+        <v>8650</v>
+      </c>
+      <c r="H76">
+        <v>8675</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>-25</v>
+      </c>
+      <c r="K76">
+        <v>722</v>
+      </c>
+      <c r="L76">
+        <v>-49</v>
+      </c>
+      <c r="M76">
+        <v>-302</v>
+      </c>
+      <c r="N76">
+        <v>-1736</v>
+      </c>
+      <c r="O76">
+        <v>2809</v>
+      </c>
+      <c r="P76">
+        <v>-1246</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>-717</v>
+      </c>
+      <c r="S76">
+        <v>-459</v>
+      </c>
+      <c r="T76">
+        <v>-70</v>
+      </c>
+      <c r="U76">
+        <v>2856</v>
+      </c>
+      <c r="V76">
+        <v>174</v>
+      </c>
+      <c r="W76">
+        <v>2682</v>
+      </c>
+      <c r="X76">
+        <v>-13</v>
+      </c>
+      <c r="Y76">
+        <v>13</v>
+      </c>
+      <c r="Z76">
+        <v>5843</v>
+      </c>
+      <c r="AA76">
+        <v>1879</v>
+      </c>
+      <c r="AB76">
+        <v>2123</v>
+      </c>
+      <c r="AC76">
+        <v>-164</v>
+      </c>
+      <c r="AD76">
+        <v>2005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
